--- a/result/LS/report.xlsx
+++ b/result/LS/report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\modelo-aps\aps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\modelo-aps\aps\result\LS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E898F3-7178-4D06-BA65-0DA9B1E6DD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A19C473-AE29-48D1-A247-B3EEEC7ED50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="1560" windowWidth="27825" windowHeight="13680" tabRatio="930" xr2:uid="{488ECC1F-BFCF-4450-9134-09D454968D0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="930" xr2:uid="{488ECC1F-BFCF-4450-9134-09D454968D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="1-Financeiro" sheetId="2" r:id="rId1"/>
@@ -1039,12 +1039,25 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1059,7 +1072,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1583,7 +1596,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8D204EDA-9717-47F0-8945-6E7D627A38EA}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="82"/>
     <tableColumn id="2" xr3:uid="{2D489D5F-5BED-4F08-B6BA-156F7196EE9D}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{B4C70203-1523-4FF1-B1F7-4593D80C9279}" uniqueName="3" name="Column22" queryTableFieldId="3" dataDxfId="63" dataCellStyle="Currency">
+    <tableColumn id="3" xr3:uid="{B4C70203-1523-4FF1-B1F7-4593D80C9279}" uniqueName="3" name="Column22" queryTableFieldId="3" dataDxfId="81" dataCellStyle="Currency">
       <calculatedColumnFormula>_1_Financeiro[[#This Row],[Column2]]/100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1595,15 +1608,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E4043EAE-E06F-4D67-AB34-F35AC3804B8C}" name="_10_Balanceamento_SHC" displayName="_10_Balanceamento_SHC" ref="A1:I20" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I20" xr:uid="{E4043EAE-E06F-4D67-AB34-F35AC3804B8C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F6710DB6-E9CA-4502-A358-699364F14895}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{DDB8A5DC-6457-4DD7-97FA-A41157F2F1CF}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{819951EB-3968-4B78-8F31-4877DE5CB6BD}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{4EC5D859-0020-4CC4-A84F-4F2B4C94C71E}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{2A3483CC-C79D-4D82-9F09-2CF4637CC080}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{FE343F6F-C838-4159-A6D8-2E4821496C6E}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{2329DEE0-C1D2-41BE-99E2-663F41C4045A}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{B8E43D84-5FFA-4D81-BFD3-31D9A13B97A5}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{1651E549-1046-4AF2-8B36-AB36CDCF8918}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{F6710DB6-E9CA-4502-A358-699364F14895}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{DDB8A5DC-6457-4DD7-97FA-A41157F2F1CF}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{819951EB-3968-4B78-8F31-4877DE5CB6BD}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{4EC5D859-0020-4CC4-A84F-4F2B4C94C71E}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{2A3483CC-C79D-4D82-9F09-2CF4637CC080}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{FE343F6F-C838-4159-A6D8-2E4821496C6E}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{2329DEE0-C1D2-41BE-99E2-663F41C4045A}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{B8E43D84-5FFA-4D81-BFD3-31D9A13B97A5}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{1651E549-1046-4AF2-8B36-AB36CDCF8918}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1613,15 +1626,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2EA189A1-B83B-4A52-9832-F22B2076E91E}" name="_11_Balanceamento_THC" displayName="_11_Balanceamento_THC" ref="A1:I17" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I17" xr:uid="{2EA189A1-B83B-4A52-9832-F22B2076E91E}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B03DC44-4A0D-4CA0-BAC6-AEBBC5F10F47}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{079B2842-E93C-4D2D-B127-CFE18A72FDD1}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{B4CEAABE-7586-4F05-A3BB-3FA79722625F}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{438F0E18-43C6-4009-B4E0-9BD32178B5F2}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{763A533D-8F58-4BB6-9710-E6EA901728B0}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{8846DD38-D03D-45E6-901A-4667F487EF86}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{982F1579-0A7A-4F5E-88D8-A2C54F4629CA}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{EB6E017F-0891-4A16-8616-899100C83327}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{A0E783BF-3421-4B85-B709-124DE915D47F}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{0B03DC44-4A0D-4CA0-BAC6-AEBBC5F10F47}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{079B2842-E93C-4D2D-B127-CFE18A72FDD1}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{B4CEAABE-7586-4F05-A3BB-3FA79722625F}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{438F0E18-43C6-4009-B4E0-9BD32178B5F2}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{763A533D-8F58-4BB6-9710-E6EA901728B0}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{8846DD38-D03D-45E6-901A-4667F487EF86}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{982F1579-0A7A-4F5E-88D8-A2C54F4629CA}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{EB6E017F-0891-4A16-8616-899100C83327}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{A0E783BF-3421-4B85-B709-124DE915D47F}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1631,10 +1644,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{3E6E97C7-BD67-4422-B8D3-B0D3A3EBF2B3}" name="_12_Fluxo_RegCensitaria" displayName="_12_Fluxo_RegCensitaria" ref="A1:D64" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D64" xr:uid="{3E6E97C7-BD67-4422-B8D3-B0D3A3EBF2B3}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AB0CE05A-A806-448C-B811-2081B34490A5}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{C3952595-36C5-48CA-87DF-17D25A061E96}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{5458F01A-09C7-4ED9-A7A8-4D5CAABA38E0}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{83BBD560-49FE-419C-8C09-F5091428D6F0}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{AB0CE05A-A806-448C-B811-2081B34490A5}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{C3952595-36C5-48CA-87DF-17D25A061E96}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{5458F01A-09C7-4ED9-A7A8-4D5CAABA38E0}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{83BBD560-49FE-419C-8C09-F5091428D6F0}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1644,10 +1657,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{0EFE13FE-6E98-4201-BD11-DDA2F88CCEFF}" name="_13_Fluxo_PHC" displayName="_13_Fluxo_PHC" ref="A1:D43" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D43" xr:uid="{0EFE13FE-6E98-4201-BD11-DDA2F88CCEFF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BCD8898A-CAC9-476F-BDC9-D4B02FC8AA5B}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{74C9AA7C-4CF9-4922-AF75-4A9C6C7F43C8}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{BCD8898A-CAC9-476F-BDC9-D4B02FC8AA5B}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{74C9AA7C-4CF9-4922-AF75-4A9C6C7F43C8}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="19"/>
     <tableColumn id="3" xr3:uid="{510C714F-9578-40FB-8247-9FC977BE601E}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{34228DFE-4220-4752-AB99-67A02EF9FAEA}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{34228DFE-4220-4752-AB99-67A02EF9FAEA}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1657,10 +1670,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{862C0F51-C62E-4330-942B-AE0B4D068168}" name="_14_Fluxo_SHC" displayName="_14_Fluxo_SHC" ref="A1:D23" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D23" xr:uid="{862C0F51-C62E-4330-942B-AE0B4D068168}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{65168CBA-8730-46EA-9C7F-90607F97CE66}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{7A03332E-7FE7-47D0-BCE1-BF0B740A92F3}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{65168CBA-8730-46EA-9C7F-90607F97CE66}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{7A03332E-7FE7-47D0-BCE1-BF0B740A92F3}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{1EEABD5D-D8D7-444B-A3F2-51B4B6EABE37}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{53AF40AC-97BE-464D-B676-40248D00E76D}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{53AF40AC-97BE-464D-B676-40248D00E76D}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1670,10 +1683,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{59C17923-B731-4732-BB9C-E59FB46DB15D}" name="_15_Fluxo_THC" displayName="_15_Fluxo_THC" ref="A1:D24" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D24" xr:uid="{59C17923-B731-4732-BB9C-E59FB46DB15D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F7520ACB-6859-43CD-8D83-061885088C5F}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{4B1ADB87-A9E2-4EBE-9E23-C06E9AD24E49}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{F7520ACB-6859-43CD-8D83-061885088C5F}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{4B1ADB87-A9E2-4EBE-9E23-C06E9AD24E49}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{07DEDA33-958D-4739-A4BA-D4761646204A}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{83A69B0F-9B4B-492A-B084-8F9F16738DE0}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{83A69B0F-9B4B-492A-B084-8F9F16738DE0}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1683,10 +1696,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{C868F86C-C4F0-493B-B198-A9EDE0FD0F7A}" name="_16_Uso_PHC" displayName="_16_Uso_PHC" ref="A1:D10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D10" xr:uid="{C868F86C-C4F0-493B-B198-A9EDE0FD0F7A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5939E453-B986-4188-85A8-ABA5740B1A8A}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{B1BC6394-B29E-47B8-8F7E-253DF4D1AA01}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{7D9DDBFA-4D7E-4D63-9CC7-3A2F4840B4B9}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{396CC55D-7556-4268-A7CC-E933239406C1}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{5939E453-B986-4188-85A8-ABA5740B1A8A}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B1BC6394-B29E-47B8-8F7E-253DF4D1AA01}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{7D9DDBFA-4D7E-4D63-9CC7-3A2F4840B4B9}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{396CC55D-7556-4268-A7CC-E933239406C1}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1722,24 +1735,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{F13E44B4-8E40-4DA2-BC9A-4458FCBED7A9}" name="_2_NovasUnidades" displayName="_2_NovasUnidades" ref="A1:D5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D5" xr:uid="{F13E44B4-8E40-4DA2-BC9A-4458FCBED7A9}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4BFD3CA0-79CF-4D3D-8D34-2A1C8B3DFE3A}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{EDD878F9-5ECD-45E9-87FA-0760979CBD11}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{46A9E5DC-CE4F-453E-B91B-868901CFD005}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{7FE7A357-1739-466E-99AA-F68C26A4E1F3}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{4BFD3CA0-79CF-4D3D-8D34-2A1C8B3DFE3A}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{EDD878F9-5ECD-45E9-87FA-0760979CBD11}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{46A9E5DC-CE4F-453E-B91B-868901CFD005}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{7FE7A357-1739-466E-99AA-F68C26A4E1F3}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1DCAC603-AECA-4137-84F1-56ABD5419EB7}" name="_3_RealocacaoEquipe_PHC" displayName="_3_RealocacaoEquipe_PHC" ref="A1:E9" tableType="queryTable" totalsRowShown="0" headerRowDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1DCAC603-AECA-4137-84F1-56ABD5419EB7}" name="_3_RealocacaoEquipe_PHC" displayName="_3_RealocacaoEquipe_PHC" ref="A1:E9" tableType="queryTable" totalsRowShown="0" headerRowDxfId="76">
   <autoFilter ref="A1:E9" xr:uid="{1DCAC603-AECA-4137-84F1-56ABD5419EB7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6C1FABFC-1509-4A33-AC17-57E18F727D6E}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{AD55F1BE-CF3F-4312-9851-E29474656393}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{71888852-C04F-4F16-B6EE-F1E1F098D09A}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{5D3BF63F-F62F-47BD-B6BE-412DE7A6E273}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{F8197BD8-2908-4EB3-94DD-90DBCB59998A}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{6C1FABFC-1509-4A33-AC17-57E18F727D6E}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{AD55F1BE-CF3F-4312-9851-E29474656393}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{71888852-C04F-4F16-B6EE-F1E1F098D09A}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{5D3BF63F-F62F-47BD-B6BE-412DE7A6E273}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{F8197BD8-2908-4EB3-94DD-90DBCB59998A}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1749,11 +1762,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0576452F-6775-454E-A423-31493D6D88AB}" name="_4_RealocacaoEquipe_SHC" displayName="_4_RealocacaoEquipe_SHC" ref="A1:E8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E8" xr:uid="{0576452F-6775-454E-A423-31493D6D88AB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{69D77FAD-4D10-4D3F-B52A-1E079299D949}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{2F807417-44F0-4E70-BAF8-1065419905B9}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{57931240-C8A3-46C8-A82A-BAB4E73B6051}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{15C6E06E-ECFF-4146-80F1-79A4A3D04F5E}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{C295CAAC-2217-444C-B8E8-6BB1B7EAC58B}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{69D77FAD-4D10-4D3F-B52A-1E079299D949}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{2F807417-44F0-4E70-BAF8-1065419905B9}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{57931240-C8A3-46C8-A82A-BAB4E73B6051}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{15C6E06E-ECFF-4146-80F1-79A4A3D04F5E}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{C295CAAC-2217-444C-B8E8-6BB1B7EAC58B}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1763,11 +1776,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6C89BDC3-652B-45B5-BFB4-C101A5BAD969}" name="_5_RealocacaoEquipe_THC" displayName="_5_RealocacaoEquipe_THC" ref="A1:E6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E6" xr:uid="{6C89BDC3-652B-45B5-BFB4-C101A5BAD969}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{92912319-8F34-4450-BCC8-E4A1B48C6F88}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{FB1697B4-59E5-4927-A4C5-878BA347F15F}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{BACD217C-B440-45BB-A346-6FFF96B2E5A6}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{6D2DDA03-3D58-4FEA-AD7C-58C5F86A8125}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{252A8127-980B-4C1E-A72D-14C86BA4B7AD}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{92912319-8F34-4450-BCC8-E4A1B48C6F88}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{FB1697B4-59E5-4927-A4C5-878BA347F15F}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{BACD217C-B440-45BB-A346-6FFF96B2E5A6}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{6D2DDA03-3D58-4FEA-AD7C-58C5F86A8125}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{252A8127-980B-4C1E-A72D-14C86BA4B7AD}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1777,9 +1790,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{88653CE7-50CC-4554-8F77-C1E458D1C2FD}" name="_6_ContratacaoEquipe_PHC" displayName="_6_ContratacaoEquipe_PHC" ref="A1:C6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C6" xr:uid="{88653CE7-50CC-4554-8F77-C1E458D1C2FD}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2C0932D8-722F-429F-81BE-BF7B4142185F}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{9F582690-E552-4566-B10C-2B0212AF4F20}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{848ABC8A-1709-4C69-A45A-270CE1929C2E}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{2C0932D8-722F-429F-81BE-BF7B4142185F}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{9F582690-E552-4566-B10C-2B0212AF4F20}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{848ABC8A-1709-4C69-A45A-270CE1929C2E}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1789,9 +1802,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0218B997-51B0-47C5-A270-5EC9E5CE087C}" name="_7_ContratacaoEquipe_SHC" displayName="_7_ContratacaoEquipe_SHC" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C2" xr:uid="{0218B997-51B0-47C5-A270-5EC9E5CE087C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AD3D4E17-A661-44E6-8B47-747CFC83181D}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{84F5C2B2-4C7D-4CC4-84F1-3F296FA2F322}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{22AF8358-3DF6-4F7B-95BF-0E361CCA1CAC}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{AD3D4E17-A661-44E6-8B47-747CFC83181D}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{84F5C2B2-4C7D-4CC4-84F1-3F296FA2F322}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{22AF8358-3DF6-4F7B-95BF-0E361CCA1CAC}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1801,9 +1814,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BB144140-D695-4A60-BE67-012EE561F492}" name="_8_ContratacaoEquipe_THC" displayName="_8_ContratacaoEquipe_THC" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C4" xr:uid="{BB144140-D695-4A60-BE67-012EE561F492}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2C6F4A28-DE6A-4935-8135-DB50608C31A1}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{D6CB4167-0D83-4273-AB7B-E5F341ED8F1E}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{B699FE06-7395-45AD-8629-0B34C0AF66C6}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{2C6F4A28-DE6A-4935-8135-DB50608C31A1}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{D6CB4167-0D83-4273-AB7B-E5F341ED8F1E}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{B699FE06-7395-45AD-8629-0B34C0AF66C6}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1814,21 +1827,21 @@
   <autoFilter ref="A1:I26" xr:uid="{41B65F2D-ED88-4595-B688-FDE8EBF15CE5}">
     <filterColumn colId="1">
       <filters>
-        <filter val="eSB"/>
+        <filter val="eMulti"/>
         <filter val="Team"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8D97739C-1DB6-438F-B531-FEFA487C0287}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{6A021020-5BB2-40EB-A834-25ADE6BEA5DF}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{815655C0-A391-4B54-822D-C93FE82AC773}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{09A16F03-FBB2-4546-9B3B-57D1E2C8BC41}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{25899D67-DC67-48F4-8BD6-71432D0F0333}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{1DEF368E-6ED8-4425-ACA4-18A4D9B3CF83}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{2EDDEA14-1BBE-46B7-99F8-9C633ECD4546}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="70"/>
-    <tableColumn id="8" xr3:uid="{DCEE8071-9031-47ED-B5BC-126F19530575}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="69"/>
-    <tableColumn id="9" xr3:uid="{552FAECA-883C-4B02-8A07-836B0E2E35F8}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{8D97739C-1DB6-438F-B531-FEFA487C0287}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{6A021020-5BB2-40EB-A834-25ADE6BEA5DF}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{815655C0-A391-4B54-822D-C93FE82AC773}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{09A16F03-FBB2-4546-9B3B-57D1E2C8BC41}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{25899D67-DC67-48F4-8BD6-71432D0F0333}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{1DEF368E-6ED8-4425-ACA4-18A4D9B3CF83}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{2EDDEA14-1BBE-46B7-99F8-9C633ECD4546}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{DCEE8071-9031-47ED-B5BC-126F19530575}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{552FAECA-883C-4B02-8A07-836B0E2E35F8}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2151,17 +2164,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEF0877-06D0-4C55-9673-F2C6F2918409}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2298,6 +2311,9 @@
         <f>_1_Financeiro[[#This Row],[Column2]]/100</f>
         <v>0.56999999999999995</v>
       </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2309,7 +2325,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A9F922-3D70-4552-AED8-BCF2CC37BE8B}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -2320,7 +2336,7 @@
     <col min="1" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2349,583 +2365,556 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>256</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" t="s">
         <v>172</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>256</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>256</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
         <v>183</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
         <v>183</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" t="s">
         <v>101</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
         <v>183</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" t="s">
         <v>101</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L23" s="5"/>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2937,7 +2926,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572B631B-8DC9-4524-BA9E-D4910C6D8904}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -2948,7 +2937,7 @@
     <col min="1" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2977,484 +2966,469 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
         <v>171</v>
       </c>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
         <v>171</v>
       </c>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
         <v>171</v>
       </c>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
         <v>171</v>
       </c>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N17" s="5"/>
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3493,884 +3467,884 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2">
         <v>1000</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>952</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>47</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>3000</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>2530</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>326</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>126</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>16</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>2000</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>1598</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
         <v>231</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>305</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>79</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>15</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>4000</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
         <v>231</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16">
         <v>3809</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
         <v>233</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17">
         <v>190</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18">
         <v>1000</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19">
         <v>952</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20">
         <v>47</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21">
         <v>1000</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22">
         <v>326</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23">
         <v>403</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
         <v>174</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24">
         <v>16</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
         <v>181</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25">
         <v>20</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26">
         <v>72</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27">
         <v>150</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28">
         <v>3</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29">
         <v>7</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30">
         <v>2000</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31">
         <v>1904</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32">
         <v>95</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33">
         <v>3000</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34">
         <v>2857</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35">
         <v>142</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36">
         <v>3000</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37">
         <v>2857</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
         <v>173</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38">
         <v>142</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39">
         <v>2000</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="5" t="s">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40">
         <v>1904</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
         <v>173</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41">
         <v>95</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42">
         <v>1000</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
         <v>115</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43">
         <v>952</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
         <v>173</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44">
         <v>47</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45">
         <v>2000</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="5" t="s">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46">
         <v>1904</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="5" t="s">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
         <v>181</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47">
         <v>95</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48">
         <v>3000</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="5" t="s">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49">
         <v>2857</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="5" t="s">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50">
         <v>142</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" t="s">
         <v>129</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51">
         <v>4000</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="5" t="s">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52">
         <v>2251</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="5" t="s">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>231</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53">
         <v>1397</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="5" t="s">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
         <v>178</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54">
         <v>112</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="5" t="s">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
         <v>233</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55">
         <v>69</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56">
         <v>161</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57">
         <v>8</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58">
         <v>5000</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="5" t="s">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59">
         <v>3463</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="5" t="s">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60">
         <v>548</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="5" t="s">
+      <c r="A61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" t="s">
         <v>178</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61">
         <v>173</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="5" t="s">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" t="s">
         <v>181</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62">
         <v>27</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="5" t="s">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63">
         <v>750</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" s="5" t="s">
+      <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
         <v>175</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64">
         <v>37</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4412,590 +4386,590 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>51</v>
       </c>
       <c r="C2">
         <v>2999</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>139</v>
       </c>
       <c r="C3">
         <v>2250</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
         <v>113</v>
       </c>
       <c r="C4">
         <v>599</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
         <v>120</v>
       </c>
       <c r="C5">
         <v>150</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>51</v>
       </c>
       <c r="C6">
         <v>6000</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
         <v>135</v>
       </c>
       <c r="C7">
         <v>3500</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
         <v>150</v>
       </c>
       <c r="C8">
         <v>1000</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
         <v>62</v>
       </c>
       <c r="C9">
         <v>1136</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
         <v>113</v>
       </c>
       <c r="C10">
         <v>63</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
         <v>63</v>
       </c>
       <c r="C11">
         <v>300</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
       <c r="C12">
         <v>3021</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
         <v>139</v>
       </c>
       <c r="C13">
         <v>750</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
         <v>134</v>
       </c>
       <c r="C14">
         <v>1016</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
         <v>135</v>
       </c>
       <c r="C15">
         <v>500</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
         <v>113</v>
       </c>
       <c r="C16">
         <v>604</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
         <v>138</v>
       </c>
       <c r="C17">
         <v>151</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>51</v>
       </c>
       <c r="C18">
         <v>3000</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
         <v>133</v>
       </c>
       <c r="C19">
         <v>2250</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
         <v>112</v>
       </c>
       <c r="C20">
         <v>600</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
         <v>120</v>
       </c>
       <c r="C21">
         <v>150</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>51</v>
       </c>
       <c r="C22">
         <v>3000</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
         <v>134</v>
       </c>
       <c r="C23">
         <v>242</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
         <v>148</v>
       </c>
       <c r="C24">
         <v>1000</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
         <v>144</v>
       </c>
       <c r="C25">
         <v>1007</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
         <v>140</v>
       </c>
       <c r="C26">
         <v>600</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
         <v>138</v>
       </c>
       <c r="C27">
         <v>150</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" t="s">
         <v>231</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>51</v>
       </c>
       <c r="C28">
         <v>5788</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
         <v>134</v>
       </c>
       <c r="C29">
         <v>341</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
         <v>146</v>
       </c>
       <c r="C30">
         <v>4000</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
         <v>140</v>
       </c>
       <c r="C31">
         <v>1157</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
         <v>119</v>
       </c>
       <c r="C32">
         <v>289</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>51</v>
       </c>
       <c r="C33">
         <v>14090</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
         <v>141</v>
       </c>
       <c r="C34">
         <v>1567</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
         <v>145</v>
       </c>
       <c r="C35">
         <v>3000</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="5" t="s">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
         <v>142</v>
       </c>
       <c r="C36">
         <v>2000</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
         <v>143</v>
       </c>
       <c r="C37">
         <v>1000</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
         <v>149</v>
       </c>
       <c r="C38">
         <v>3000</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="5" t="s">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
         <v>147</v>
       </c>
       <c r="C39">
         <v>2000</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="5" t="s">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
         <v>112</v>
       </c>
       <c r="C40">
         <v>818</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
         <v>63</v>
       </c>
       <c r="C41">
         <v>356</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="5" t="s">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
         <v>137</v>
       </c>
       <c r="C42">
         <v>337</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
         <v>119</v>
       </c>
       <c r="C43">
         <v>10</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5037,310 +5011,310 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>51</v>
       </c>
       <c r="C2">
         <v>1999</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>141</v>
       </c>
       <c r="C3">
         <v>295</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
         <v>133</v>
       </c>
       <c r="C4">
         <v>1104</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
         <v>115</v>
       </c>
       <c r="C5">
         <v>400</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
         <v>119</v>
       </c>
       <c r="C6">
         <v>200</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7">
         <v>2000</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
         <v>144</v>
       </c>
       <c r="C8">
         <v>1400</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
         <v>115</v>
       </c>
       <c r="C9">
         <v>400</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
         <v>120</v>
       </c>
       <c r="C10">
         <v>200</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
       <c r="C11">
         <v>1624</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
         <v>136</v>
       </c>
       <c r="C12">
         <v>1000</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
         <v>141</v>
       </c>
       <c r="C13">
         <v>136</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
         <v>115</v>
       </c>
       <c r="C14">
         <v>324</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
         <v>137</v>
       </c>
       <c r="C15">
         <v>162</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>51</v>
       </c>
       <c r="C16">
         <v>1436</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
         <v>132</v>
       </c>
       <c r="C17">
         <v>1005</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
         <v>115</v>
       </c>
       <c r="C18">
         <v>287</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
         <v>63</v>
       </c>
       <c r="C19">
         <v>143</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>51</v>
       </c>
       <c r="C20">
         <v>1989</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
         <v>133</v>
       </c>
       <c r="C21">
         <v>1392</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
         <v>115</v>
       </c>
       <c r="C22">
         <v>397</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
         <v>138</v>
       </c>
       <c r="C23">
         <v>198</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5382,324 +5356,324 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>51</v>
       </c>
       <c r="C2">
         <v>800</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>132</v>
       </c>
       <c r="C3">
         <v>386</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
         <v>133</v>
       </c>
       <c r="C4">
         <v>253</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
         <v>115</v>
       </c>
       <c r="C5">
         <v>80</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
         <v>140</v>
       </c>
       <c r="C6">
         <v>79</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7">
         <v>500</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
         <v>144</v>
       </c>
       <c r="C8">
         <v>400</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
         <v>115</v>
       </c>
       <c r="C9">
         <v>50</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
         <v>140</v>
       </c>
       <c r="C10">
         <v>50</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
       <c r="C11">
         <v>500</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
         <v>144</v>
       </c>
       <c r="C12">
         <v>192</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
         <v>132</v>
       </c>
       <c r="C13">
         <v>207</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
         <v>115</v>
       </c>
       <c r="C14">
         <v>50</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
         <v>140</v>
       </c>
       <c r="C15">
         <v>50</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>138</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>51</v>
       </c>
       <c r="C16">
         <v>500</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
         <v>132</v>
       </c>
       <c r="C17">
         <v>400</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
         <v>115</v>
       </c>
       <c r="C18">
         <v>50</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
         <v>112</v>
       </c>
       <c r="C19">
         <v>48</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
         <v>140</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>51</v>
       </c>
       <c r="C21">
         <v>500</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
         <v>134</v>
       </c>
       <c r="C22">
         <v>400</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
         <v>115</v>
       </c>
       <c r="C23">
         <v>50</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
         <v>140</v>
       </c>
       <c r="C24">
         <v>50</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5899,100 +5873,100 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>282</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>283</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>285</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6030,86 +6004,86 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6241,138 +6215,138 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>227</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>227</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6413,121 +6387,121 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6568,87 +6542,87 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6683,57 +6657,57 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -6768,13 +6742,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6809,35 +6783,35 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6854,7 +6828,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6948,9 +6922,8 @@
       <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -6978,9 +6951,8 @@
       <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -7008,8 +6980,6 @@
       <c r="I5" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -7039,10 +7009,8 @@
       <c r="I6" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -7070,10 +7038,8 @@
       <c r="I7" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -7101,8 +7067,6 @@
       <c r="I8" t="s">
         <v>171</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -7132,10 +7096,8 @@
       <c r="I9" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -7163,10 +7125,8 @@
       <c r="I10" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -7194,8 +7154,6 @@
       <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -7225,12 +7183,11 @@
       <c r="I12" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5">
+      <c r="M12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -7258,9 +7215,8 @@
       <c r="I13" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -7288,7 +7244,6 @@
       <c r="I14" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -7318,9 +7273,8 @@
       <c r="I15" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -7348,9 +7302,8 @@
       <c r="I16" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -7378,9 +7331,8 @@
       <c r="I17" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -7408,9 +7360,8 @@
       <c r="I18" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -7438,9 +7389,8 @@
       <c r="I19" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -7468,9 +7418,8 @@
       <c r="I20" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>227</v>
       </c>
@@ -7498,9 +7447,8 @@
       <c r="I21" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>227</v>
       </c>
@@ -7528,9 +7476,8 @@
       <c r="I22" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>227</v>
       </c>
@@ -7558,9 +7505,8 @@
       <c r="I23" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -7588,9 +7534,8 @@
       <c r="I24" t="s">
         <v>43</v>
       </c>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -7618,9 +7563,8 @@
       <c r="I25" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -7648,7 +7592,6 @@
       <c r="I26" t="s">
         <v>43</v>
       </c>
-      <c r="L26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
